--- a/noi_dung_thuc_hien.xlsx
+++ b/noi_dung_thuc_hien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>Khung của menu con thay đổi theo độ rộng</t>
+  </si>
+  <si>
+    <t>thêm ô tìm kiếm</t>
+  </si>
+  <si>
+    <t>thêm nội dung hastag</t>
+  </si>
+  <si>
+    <t>Giống trang http://kenh14.vn/</t>
   </si>
 </sst>
 </file>
@@ -370,23 +379,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="3" max="3" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -394,7 +404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -402,7 +412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -410,12 +420,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/noi_dung_thuc_hien.xlsx
+++ b/noi_dung_thuc_hien.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -38,12 +38,28 @@
   </si>
   <si>
     <t>Giống trang http://kenh14.vn/</t>
+  </si>
+  <si>
+    <t>đã làm</t>
+  </si>
+  <si>
+    <t>ko hiểu</t>
+  </si>
+  <si>
+    <t>đã sửa</t>
+  </si>
+  <si>
+    <t>thêm hashtag trong trang post</t>
+  </si>
+  <si>
+    <t>đã thêm menu -&gt; click vào hiện khung search 
+- Thêm trang search thành công</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,8 +89,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,66 +398,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="57.28515625" customWidth="1"/>
     <col min="3" max="3" width="73.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
